--- a/Wyoming/WaterAllocation/WYwr_POU_Allocation Schema Mapping to WaDE.xlsx
+++ b/Wyoming/WaterAllocation/WYwr_POU_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Wyoming\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC2B8B9-15E2-4133-8899-E4DFD370F933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618E9BF3-D8B1-4548-9453-B275B4AA0AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="529">
   <si>
     <t>Name</t>
   </si>
@@ -280,9 +280,6 @@
     <t>OrganizationContactEmail</t>
   </si>
   <si>
-    <t>OrganizationDataMappingURL</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
@@ -1078,9 +1075,6 @@
     <t>MEC</t>
   </si>
   <si>
-    <t>Mechanical </t>
-  </si>
-  <si>
     <t>MED</t>
   </si>
   <si>
@@ -1625,6 +1619,15 @@
   </si>
   <si>
     <t>Legal Processes</t>
+  </si>
+  <si>
+    <t>Mechanical</t>
+  </si>
+  <si>
+    <t>Some of their sites and water source names contain a ',' value, will remove to ensure we are getting the record as temp fix.</t>
+  </si>
+  <si>
+    <t>WaDEDataMappingUrl</t>
   </si>
 </sst>
 </file>
@@ -2482,7 +2485,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2852,6 +2855,9 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -3233,7 +3239,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3244,67 +3250,72 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B4" s="94" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8" s="111" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>507</v>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="128" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B17" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -3317,8 +3328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3357,13 +3368,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="53" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3404,7 +3415,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3421,7 +3432,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="85" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F4" s="59" t="s">
         <v>38</v>
@@ -3433,10 +3444,10 @@
         <v>38</v>
       </c>
       <c r="I4" s="70" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J4" s="71" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3453,7 +3464,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F5" s="44" t="s">
         <v>38</v>
@@ -3465,10 +3476,10 @@
         <v>38</v>
       </c>
       <c r="I5" s="70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J5" s="71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3485,7 +3496,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>38</v>
@@ -3500,7 +3511,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3517,7 +3528,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F7" s="44" t="s">
         <v>38</v>
@@ -3532,7 +3543,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="71" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3549,7 +3560,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F8" s="44" t="s">
         <v>38</v>
@@ -3561,10 +3572,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="73" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J8" s="71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3581,7 +3592,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F9" s="44" t="s">
         <v>38</v>
@@ -3594,7 +3605,7 @@
       </c>
       <c r="I9" s="74"/>
       <c r="J9" s="71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3611,7 +3622,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F10" s="44" t="s">
         <v>38</v>
@@ -3623,10 +3634,10 @@
         <v>38</v>
       </c>
       <c r="I10" s="70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J10" s="71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3643,7 +3654,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="127" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F11" s="44" t="s">
         <v>38</v>
@@ -3655,10 +3666,10 @@
         <v>38</v>
       </c>
       <c r="I11" s="70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J11" s="71" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3675,7 +3686,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F12" s="44" t="s">
         <v>38</v>
@@ -3687,10 +3698,42 @@
         <v>38</v>
       </c>
       <c r="I12" s="70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J12" s="71" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="92" t="s">
+        <v>441</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" s="71" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -3705,9 +3748,10 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="E11" r:id="rId1" xr:uid="{EC02417B-5E15-4F3B-BD46-73B0F2C5D9D4}"/>
+    <hyperlink ref="E13" r:id="rId2" xr:uid="{883B1D5D-021F-4AE7-974B-4CB782000213}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3755,13 +3799,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3796,7 +3840,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3813,7 +3857,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="85" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -3825,10 +3869,10 @@
         <v>38</v>
       </c>
       <c r="I4" s="70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J4" s="71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3856,7 +3900,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="71" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3873,7 +3917,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="91" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>38</v>
@@ -3885,10 +3929,10 @@
         <v>38</v>
       </c>
       <c r="I6" s="70" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J6" s="71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3905,7 +3949,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="44" t="s">
         <v>38</v>
@@ -3917,10 +3961,10 @@
         <v>38</v>
       </c>
       <c r="I7" s="70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J7" s="71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3937,7 +3981,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" s="44" t="s">
         <v>38</v>
@@ -3949,10 +3993,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="70" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J8" s="71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3969,7 +4013,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F9" s="44" t="s">
         <v>38</v>
@@ -3981,10 +4025,10 @@
         <v>38</v>
       </c>
       <c r="I9" s="70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J9" s="71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4016,7 +4060,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4033,7 +4077,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" s="44" t="s">
         <v>38</v>
@@ -4045,10 +4089,10 @@
         <v>38</v>
       </c>
       <c r="I11" s="70" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J11" s="71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4065,7 +4109,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="91" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F12" s="44" t="s">
         <v>38</v>
@@ -4077,10 +4121,10 @@
         <v>38</v>
       </c>
       <c r="I12" s="70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J12" s="71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -4097,7 +4141,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="91" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F13" s="44" t="s">
         <v>38</v>
@@ -4109,10 +4153,10 @@
         <v>38</v>
       </c>
       <c r="I13" s="70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J13" s="71" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -4126,10 +4170,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4168,13 +4212,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4215,7 +4259,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -4232,7 +4276,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="85" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -4244,10 +4288,10 @@
         <v>38</v>
       </c>
       <c r="I4" s="74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J4" s="71" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4264,7 +4308,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="95" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>38</v>
@@ -4276,10 +4320,10 @@
         <v>38</v>
       </c>
       <c r="I5" s="74" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5" s="71" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4296,7 +4340,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>38</v>
@@ -4308,15 +4352,15 @@
         <v>38</v>
       </c>
       <c r="I6" s="74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J6" s="71" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>34</v>
@@ -4327,8 +4371,8 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="92" t="s">
-        <v>443</v>
+      <c r="E7" s="93" t="s">
+        <v>436</v>
       </c>
       <c r="F7" s="44" t="s">
         <v>38</v>
@@ -4340,15 +4384,15 @@
         <v>38</v>
       </c>
       <c r="I7" s="74" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="J7" s="71" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>34</v>
@@ -4359,7 +4403,7 @@
       <c r="D8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="43" t="s">
         <v>438</v>
       </c>
       <c r="F8" s="44" t="s">
@@ -4372,27 +4416,27 @@
         <v>38</v>
       </c>
       <c r="I8" s="74" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="J8" s="71" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="84" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F9" s="44" t="s">
         <v>38</v>
@@ -4404,27 +4448,27 @@
         <v>38</v>
       </c>
       <c r="I9" s="74" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="J9" s="71" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="84" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="43" t="s">
-        <v>445</v>
+      <c r="E10" s="95" t="s">
+        <v>437</v>
       </c>
       <c r="F10" s="44" t="s">
         <v>38</v>
@@ -4436,18 +4480,18 @@
         <v>38</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="J10" s="71" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>38</v>
@@ -4455,8 +4499,8 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="95" t="s">
-        <v>439</v>
+      <c r="E11" s="15" t="s">
+        <v>442</v>
       </c>
       <c r="F11" s="44" t="s">
         <v>38</v>
@@ -4468,43 +4512,14 @@
         <v>38</v>
       </c>
       <c r="I11" s="74" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J11" s="71" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="74" t="s">
-        <v>131</v>
-      </c>
-      <c r="J12" s="71" t="s">
-        <v>185</v>
-      </c>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19"/>
@@ -4527,20 +4542,16 @@
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:A25">
-    <sortCondition ref="A17:A25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:A24">
+    <sortCondition ref="A16:A24"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" xr:uid="{605119CB-F280-47B5-8E9C-1CE5DB5711FF}"/>
+    <hyperlink ref="E10" r:id="rId1" xr:uid="{605119CB-F280-47B5-8E9C-1CE5DB5711FF}"/>
     <hyperlink ref="E5" r:id="rId2" xr:uid="{726AE98C-F50F-4381-9380-5B4D11C9FCC0}"/>
-    <hyperlink ref="E7" r:id="rId3" xr:uid="{883B1D5D-021F-4AE7-974B-4CB782000213}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4588,13 +4599,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="53" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4627,7 +4638,7 @@
         <v>34658</v>
       </c>
       <c r="J3" s="115" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4644,7 +4655,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="103" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F4" s="104" t="s">
         <v>38</v>
@@ -4654,10 +4665,10 @@
       </c>
       <c r="H4" s="69"/>
       <c r="I4" s="70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J4" s="115" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4674,7 +4685,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="106" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F5" s="106" t="s">
         <v>38</v>
@@ -4687,7 +4698,7 @@
         <v>38</v>
       </c>
       <c r="J5" s="115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4704,7 +4715,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="106" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F6" s="106" t="s">
         <v>38</v>
@@ -4717,7 +4728,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="115" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4734,7 +4745,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="106" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F7" s="106" t="s">
         <v>38</v>
@@ -4744,10 +4755,10 @@
       </c>
       <c r="H7" s="69"/>
       <c r="I7" s="70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J7" s="115" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4767,17 +4778,17 @@
         <v>38</v>
       </c>
       <c r="F8" s="41" t="s">
+        <v>497</v>
+      </c>
+      <c r="G8" s="46" t="s">
         <v>499</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>501</v>
       </c>
       <c r="H8" s="75"/>
       <c r="I8" s="70" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J8" s="115" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4794,7 +4805,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="116" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F9" s="116" t="s">
         <v>38</v>
@@ -4807,7 +4818,7 @@
         <v>17839</v>
       </c>
       <c r="J9" s="115" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4827,17 +4838,17 @@
         <v>38</v>
       </c>
       <c r="F10" s="109" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G10" s="110" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H10" s="75"/>
       <c r="I10" s="70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J10" s="115" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4901,13 +4912,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="53" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4946,7 +4957,7 @@
         <v>39035</v>
       </c>
       <c r="J3" s="71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4961,7 +4972,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="118" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F4" s="59" t="s">
         <v>38</v>
@@ -4971,10 +4982,10 @@
       </c>
       <c r="H4" s="69"/>
       <c r="I4" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J4" s="71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4982,7 +4993,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>18</v>
@@ -4991,7 +5002,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F5" s="44" t="s">
         <v>38</v>
@@ -5001,10 +5012,10 @@
       </c>
       <c r="H5" s="69"/>
       <c r="I5" s="74" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J5" s="71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5021,7 +5032,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>38</v>
@@ -5031,10 +5042,10 @@
       </c>
       <c r="H6" s="69"/>
       <c r="I6" s="74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J6" s="71" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -5042,7 +5053,7 @@
         <v>66</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>18</v>
@@ -5051,7 +5062,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F7" s="44" t="s">
         <v>38</v>
@@ -5064,7 +5075,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -5091,10 +5102,10 @@
       </c>
       <c r="H8" s="75"/>
       <c r="I8" s="74" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J8" s="71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -5111,7 +5122,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F9" s="44" t="s">
         <v>38</v>
@@ -5122,7 +5133,7 @@
       <c r="H9" s="69"/>
       <c r="I9" s="74"/>
       <c r="J9" s="71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -5139,7 +5150,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F10" s="44" t="s">
         <v>38</v>
@@ -5152,7 +5163,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -5160,7 +5171,7 @@
         <v>64</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>18</v>
@@ -5169,7 +5180,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F11" s="44" t="s">
         <v>38</v>
@@ -5182,7 +5193,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5190,7 +5201,7 @@
         <v>65</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>18</v>
@@ -5199,7 +5210,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F12" s="44" t="s">
         <v>38</v>
@@ -5212,7 +5223,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5232,17 +5243,17 @@
         <v>38</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>55</v>
       </c>
       <c r="H13" s="77"/>
       <c r="I13" s="74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J13" s="71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5262,7 +5273,7 @@
         <v>38</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G14" s="45" t="s">
         <v>54</v>
@@ -5272,7 +5283,7 @@
         <v>-1067.700435</v>
       </c>
       <c r="J14" s="71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5289,7 +5300,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F15" s="44" t="s">
         <v>38</v>
@@ -5302,7 +5313,7 @@
         <v>38</v>
       </c>
       <c r="J15" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5319,7 +5330,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F16" s="44" t="s">
         <v>38</v>
@@ -5332,12 +5343,12 @@
         <v>38</v>
       </c>
       <c r="J16" s="71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -5349,7 +5360,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
@@ -5359,7 +5370,7 @@
       </c>
       <c r="H17" s="78"/>
       <c r="I17" s="79" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J17" s="78"/>
     </row>
@@ -5378,17 +5389,17 @@
         <v>38</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H18" s="69"/>
       <c r="I18" s="74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J18" s="71" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -5405,7 +5416,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F19" s="44" t="s">
         <v>38</v>
@@ -5418,7 +5429,7 @@
         <v>3703994</v>
       </c>
       <c r="J19" s="71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -5435,7 +5446,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F20" s="44" t="s">
         <v>38</v>
@@ -5445,10 +5456,10 @@
       </c>
       <c r="H20" s="69"/>
       <c r="I20" s="74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J20" s="76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5468,17 +5479,17 @@
         <v>38</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H21" s="69"/>
       <c r="I21" s="74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J21" s="71" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5495,7 +5506,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F22" s="44" t="s">
         <v>38</v>
@@ -5505,10 +5516,10 @@
       </c>
       <c r="H22" s="69"/>
       <c r="I22" s="74" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J22" s="71" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5525,7 +5536,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F23" s="44" t="s">
         <v>38</v>
@@ -5538,7 +5549,7 @@
         <v>38</v>
       </c>
       <c r="J23" s="76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -5594,13 +5605,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="53" t="s">
         <v>156</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -5614,7 +5625,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>33</v>
@@ -5635,7 +5646,7 @@
         <v>50004</v>
       </c>
       <c r="J3" s="71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -5667,7 +5678,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -5699,7 +5710,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -5731,7 +5742,7 @@
         <v>39035</v>
       </c>
       <c r="J6" s="71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -5763,7 +5774,7 @@
         <v>63</v>
       </c>
       <c r="J7" s="71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -5795,12 +5806,12 @@
         <v>371091</v>
       </c>
       <c r="J8" s="71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>34</v>
@@ -5812,7 +5823,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="32"/>
@@ -5834,7 +5845,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="126" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -5849,7 +5860,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="71" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -5866,7 +5877,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>38</v>
@@ -5881,7 +5892,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="71" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5898,7 +5909,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>38</v>
@@ -5913,7 +5924,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -5930,7 +5941,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="126" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>38</v>
@@ -5945,7 +5956,7 @@
         <v>38</v>
       </c>
       <c r="J13" s="71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5962,7 +5973,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F14" s="59" t="s">
         <v>38</v>
@@ -5977,12 +5988,12 @@
         <v>38</v>
       </c>
       <c r="J14" s="71" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>33</v>
@@ -5994,7 +6005,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>38</v>
@@ -6009,12 +6020,12 @@
         <v>5363</v>
       </c>
       <c r="J15" s="71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>68</v>
@@ -6026,7 +6037,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>38</v>
@@ -6038,15 +6049,15 @@
         <v>38</v>
       </c>
       <c r="I16" s="74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J16" s="76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="36" t="s">
         <v>68</v>
@@ -6058,7 +6069,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
@@ -6070,15 +6081,15 @@
         <v>38</v>
       </c>
       <c r="I17" s="74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J17" s="76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>34</v>
@@ -6090,7 +6101,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>38</v>
@@ -6102,15 +6113,15 @@
         <v>38</v>
       </c>
       <c r="I18" s="74" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J18" s="71" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>15</v>
@@ -6122,7 +6133,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>38</v>
@@ -6134,15 +6145,15 @@
         <v>38</v>
       </c>
       <c r="I19" s="74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J19" s="76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>34</v>
@@ -6154,7 +6165,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>38</v>
@@ -6166,15 +6177,15 @@
         <v>38</v>
       </c>
       <c r="I20" s="74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J20" s="71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>69</v>
@@ -6186,7 +6197,7 @@
         <v>38</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>38</v>
@@ -6201,12 +6212,12 @@
         <v>38</v>
       </c>
       <c r="J21" s="76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="36" t="s">
         <v>33</v>
@@ -6218,7 +6229,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>38</v>
@@ -6233,12 +6244,12 @@
         <v>5200</v>
       </c>
       <c r="J22" s="71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="68" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>69</v>
@@ -6250,7 +6261,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>38</v>
@@ -6265,12 +6276,12 @@
         <v>1</v>
       </c>
       <c r="J23" s="71" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>34</v>
@@ -6285,24 +6296,24 @@
         <v>38</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H24" s="80" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J24" s="71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="36" t="s">
         <v>34</v>
@@ -6317,24 +6328,24 @@
         <v>38</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G25" s="46" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H25" s="80" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J25" s="71" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="36" t="s">
         <v>68</v>
@@ -6346,27 +6357,27 @@
         <v>38</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G26" s="46" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H26" s="80" t="s">
         <v>38</v>
       </c>
       <c r="I26" s="74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J26" s="71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>33</v>
@@ -6381,24 +6392,24 @@
         <v>38</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G27" s="46" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H27" s="80" t="s">
         <v>38</v>
       </c>
       <c r="I27" s="74" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J27" s="71" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" s="36" t="s">
         <v>15</v>
@@ -6410,7 +6421,7 @@
         <v>20</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>38</v>
@@ -6425,15 +6436,15 @@
         <v>38</v>
       </c>
       <c r="J28" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="36" t="s">
         <v>18</v>
@@ -6442,7 +6453,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>38</v>
@@ -6457,15 +6468,15 @@
         <v>44196</v>
       </c>
       <c r="J29" s="71" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C30" s="36" t="s">
         <v>18</v>
@@ -6474,7 +6485,7 @@
         <v>38</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>38</v>
@@ -6489,12 +6500,12 @@
         <v>43831</v>
       </c>
       <c r="J30" s="71" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>34</v>
@@ -6506,7 +6517,7 @@
         <v>20</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>38</v>
@@ -6518,15 +6529,15 @@
         <v>38</v>
       </c>
       <c r="I31" s="74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J31" s="71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B32" s="36" t="s">
         <v>69</v>
@@ -6538,7 +6549,7 @@
         <v>38</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>38</v>
@@ -6553,12 +6564,12 @@
         <v>0</v>
       </c>
       <c r="J32" s="71" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>34</v>
@@ -6570,13 +6581,13 @@
         <v>38</v>
       </c>
       <c r="E33" s="67" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F33" s="41" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G33" s="45" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H33" s="80" t="s">
         <v>38</v>
@@ -6585,12 +6596,12 @@
         <v>38</v>
       </c>
       <c r="J33" s="71" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" s="36" t="s">
         <v>34</v>
@@ -6602,7 +6613,7 @@
         <v>38</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>38</v>
@@ -6614,15 +6625,15 @@
         <v>38</v>
       </c>
       <c r="I34" s="74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J34" s="76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>15</v>
@@ -6634,7 +6645,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>38</v>
@@ -6646,15 +6657,15 @@
         <v>38</v>
       </c>
       <c r="I35" s="74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J35" s="71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" s="36" t="s">
         <v>15</v>
@@ -6666,7 +6677,7 @@
         <v>20</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>38</v>
@@ -6678,15 +6689,15 @@
         <v>38</v>
       </c>
       <c r="I36" s="74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J36" s="71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B37" s="36" t="s">
         <v>33</v>
@@ -6713,12 +6724,12 @@
         <v>43874</v>
       </c>
       <c r="J37" s="71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="36" t="s">
         <v>15</v>
@@ -6730,7 +6741,7 @@
         <v>38</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>38</v>
@@ -6745,15 +6756,15 @@
         <v>33187</v>
       </c>
       <c r="J38" s="76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="68" t="s">
+        <v>243</v>
+      </c>
+      <c r="B39" s="36" t="s">
         <v>244</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>245</v>
       </c>
       <c r="C39" s="37" t="s">
         <v>18</v>
@@ -6776,7 +6787,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" s="36" t="s">
         <v>69</v>
@@ -6788,7 +6799,7 @@
         <v>38</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F40" s="24" t="s">
         <v>38</v>
@@ -6803,12 +6814,12 @@
         <v>38</v>
       </c>
       <c r="J40" s="71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41" s="36" t="s">
         <v>69</v>
@@ -6823,22 +6834,22 @@
         <v>38</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H41" s="77"/>
       <c r="I41" s="81" t="s">
         <v>38</v>
       </c>
       <c r="J41" s="71" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B42" s="36" t="s">
         <v>15</v>
@@ -6850,7 +6861,7 @@
         <v>20</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>38</v>
@@ -6862,15 +6873,15 @@
         <v>38</v>
       </c>
       <c r="I42" s="74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J42" s="71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>34</v>
@@ -6882,7 +6893,7 @@
         <v>38</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F43" s="24" t="s">
         <v>38</v>
@@ -6897,12 +6908,12 @@
         <v>38</v>
       </c>
       <c r="J43" s="76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>34</v>
@@ -6914,17 +6925,17 @@
         <v>20</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G44" s="121"/>
       <c r="H44" s="112" t="s">
         <v>38</v>
       </c>
       <c r="I44" s="113" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J44" s="114" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6935,7 +6946,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B45" s="36" t="s">
         <v>33</v>
@@ -6947,7 +6958,7 @@
         <v>38</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F45" s="24" t="s">
         <v>38</v>
@@ -6962,12 +6973,12 @@
         <v>38</v>
       </c>
       <c r="J45" s="71" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B46" s="36" t="s">
         <v>16</v>
@@ -6979,7 +6990,7 @@
         <v>20</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>38</v>
@@ -6991,18 +7002,18 @@
         <v>38</v>
       </c>
       <c r="I46" s="74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J46" s="76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C47" s="37" t="s">
         <v>18</v>
@@ -7011,7 +7022,7 @@
         <v>20</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F47" s="24" t="s">
         <v>38</v>
@@ -7023,15 +7034,15 @@
         <v>38</v>
       </c>
       <c r="I47" s="74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J47" s="71" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" s="36" t="s">
         <v>34</v>
@@ -7043,7 +7054,7 @@
         <v>38</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F48" s="24" t="s">
         <v>38</v>
@@ -7055,10 +7066,10 @@
         <v>38</v>
       </c>
       <c r="I48" s="74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J48" s="71" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -7075,8 +7086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A68CD9-E6C8-4C1E-8A36-F76F66BA5935}">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7092,36 +7103,36 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="87" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G1" s="90" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="88" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="96" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C2" s="98" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F2" s="88" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G2" s="88" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H2" s="86"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="89" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B3" s="97" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C3" s="99" t="str">
         <f>""""&amp;A3&amp;""""&amp;" : "&amp;""""&amp;B3&amp;""""&amp;","</f>
@@ -7130,18 +7141,18 @@
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
       <c r="F3" s="89" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G3" s="89" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="89" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B4" s="97" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C4" s="99" t="str">
         <f t="shared" ref="C4:C42" si="0">""""&amp;A4&amp;""""&amp;" : "&amp;""""&amp;B4&amp;""""&amp;","</f>
@@ -7150,18 +7161,18 @@
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
       <c r="F4" s="89" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G4" s="89" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="89" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B5" s="97" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C5" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7170,18 +7181,18 @@
       <c r="D5" s="40"/>
       <c r="E5" s="40"/>
       <c r="F5" s="89" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G5" s="89" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="89" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B6" s="97" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C6" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7190,18 +7201,18 @@
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="89" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G6" s="89" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="89" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B7" s="97" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C7" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7210,18 +7221,18 @@
       <c r="D7" s="40"/>
       <c r="E7" s="40"/>
       <c r="F7" s="89" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G7" s="89" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="89" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B8" s="97" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C8" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7230,18 +7241,18 @@
       <c r="D8" s="40"/>
       <c r="E8" s="40"/>
       <c r="F8" s="89" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G8" s="89" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="89" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B9" s="97" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C9" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7250,18 +7261,18 @@
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
       <c r="F9" s="89" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G9" s="89" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="89" t="s">
+        <v>331</v>
+      </c>
+      <c r="B10" s="97" t="s">
         <v>332</v>
-      </c>
-      <c r="B10" s="97" t="s">
-        <v>333</v>
       </c>
       <c r="C10" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7270,18 +7281,18 @@
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
       <c r="F10" s="89" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G10" s="89" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="89" t="s">
+        <v>333</v>
+      </c>
+      <c r="B11" s="97" t="s">
         <v>334</v>
-      </c>
-      <c r="B11" s="97" t="s">
-        <v>335</v>
       </c>
       <c r="C11" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7290,18 +7301,18 @@
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
       <c r="F11" s="89" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G11" s="89" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="89" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C12" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7310,18 +7321,18 @@
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
       <c r="F12" s="89" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G12" s="89" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="89" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C13" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7330,18 +7341,18 @@
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
       <c r="F13" s="89" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G13" s="89" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="89" t="s">
+        <v>335</v>
+      </c>
+      <c r="B14" s="97" t="s">
         <v>336</v>
-      </c>
-      <c r="B14" s="97" t="s">
-        <v>337</v>
       </c>
       <c r="C14" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7350,18 +7361,18 @@
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
       <c r="F14" s="89" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G14" s="89" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="89" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C15" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7370,18 +7381,18 @@
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
       <c r="F15" s="89" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G15" s="89" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="89" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B16" s="97" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C16" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7390,18 +7401,18 @@
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
       <c r="F16" s="89" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G16" s="89" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="89" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B17" s="97" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C17" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7410,18 +7421,18 @@
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
       <c r="F17" s="89" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G17" s="89" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="89" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B18" s="97" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C18" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7433,15 +7444,15 @@
         <v>38</v>
       </c>
       <c r="G18" s="89" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="89" t="s">
+        <v>337</v>
+      </c>
+      <c r="B19" s="97" t="s">
         <v>338</v>
-      </c>
-      <c r="B19" s="97" t="s">
-        <v>339</v>
       </c>
       <c r="C19" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7452,10 +7463,10 @@
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="89" t="s">
+        <v>339</v>
+      </c>
+      <c r="B20" s="97" t="s">
         <v>340</v>
-      </c>
-      <c r="B20" s="97" t="s">
-        <v>341</v>
       </c>
       <c r="C20" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7466,10 +7477,10 @@
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="89" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B21" s="97" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C21" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7480,10 +7491,10 @@
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="89" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C22" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7494,10 +7505,10 @@
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="89" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B23" s="97" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C23" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7508,10 +7519,10 @@
     </row>
     <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="89" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B24" s="97" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C24" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7522,10 +7533,10 @@
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="89" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B25" s="97" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C25" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7536,10 +7547,10 @@
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="89" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B26" s="97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C26" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7550,10 +7561,10 @@
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="89" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B27" s="97" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C27" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7564,10 +7575,10 @@
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="89" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B28" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C28" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7578,10 +7589,10 @@
     </row>
     <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="89" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7592,10 +7603,10 @@
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="89" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B30" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C30" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7606,10 +7617,10 @@
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="89" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B31" s="97" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C31" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7620,10 +7631,10 @@
     </row>
     <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="89" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B32" s="97" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C32" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7634,10 +7645,10 @@
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="89" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B33" s="97" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C33" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7648,10 +7659,10 @@
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="89" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B34" s="97" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C34" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7662,10 +7673,10 @@
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="89" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B35" s="97" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C35" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7676,10 +7687,10 @@
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="89" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B36" s="97" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C36" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7690,10 +7701,10 @@
     </row>
     <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="89" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B37" s="97" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C37" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7704,10 +7715,10 @@
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="89" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B38" s="97" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C38" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7718,10 +7729,10 @@
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="89" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B39" s="97" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C39" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7732,10 +7743,10 @@
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="89" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B40" s="97" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C40" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7746,10 +7757,10 @@
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="89" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B41" s="97" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C41" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7760,10 +7771,10 @@
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="89" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B42" s="97" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C42" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7774,10 +7785,10 @@
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="89" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B43" s="97" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C43" s="99" t="str">
         <f t="shared" ref="C43:C89" si="1">""""&amp;A43&amp;""""&amp;" : "&amp;""""&amp;B43&amp;""""&amp;","</f>
@@ -7790,10 +7801,10 @@
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="89" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B44" s="97" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C44" s="99" t="str">
         <f t="shared" si="1"/>
@@ -7806,10 +7817,10 @@
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="89" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B45" s="97" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C45" s="99" t="str">
         <f t="shared" si="1"/>
@@ -7822,10 +7833,10 @@
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="89" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B46" s="97" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C46" s="99" t="str">
         <f t="shared" si="1"/>
@@ -7838,10 +7849,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="89" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B47" s="97" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C47" s="99" t="str">
         <f t="shared" si="1"/>
@@ -7854,10 +7865,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="89" t="s">
+        <v>341</v>
+      </c>
+      <c r="B48" s="97" t="s">
         <v>342</v>
-      </c>
-      <c r="B48" s="97" t="s">
-        <v>343</v>
       </c>
       <c r="C48" s="99" t="str">
         <f t="shared" si="1"/>
@@ -7870,10 +7881,10 @@
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="89" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B49" s="97" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C49" s="99" t="str">
         <f t="shared" si="1"/>
@@ -7886,14 +7897,14 @@
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="89" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B50" s="97" t="s">
-        <v>345</v>
+        <v>526</v>
       </c>
       <c r="C50" s="99" t="str">
         <f t="shared" si="1"/>
-        <v>"MEC" : "Mechanical ",</v>
+        <v>"MEC" : "Mechanical",</v>
       </c>
       <c r="D50" s="40"/>
       <c r="E50" s="40"/>
@@ -7902,10 +7913,10 @@
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="89" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B51" s="97" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C51" s="99" t="str">
         <f t="shared" si="1"/>
@@ -7918,10 +7929,10 @@
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="89" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B52" s="97" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C52" s="99" t="str">
         <f t="shared" si="1"/>
@@ -7934,10 +7945,10 @@
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="89" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B53" s="97" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C53" s="99" t="str">
         <f t="shared" si="1"/>
@@ -7950,10 +7961,10 @@
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="89" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B54" s="97" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C54" s="99" t="str">
         <f t="shared" si="1"/>
@@ -7966,10 +7977,10 @@
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="89" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B55" s="97" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C55" s="99" t="str">
         <f t="shared" si="1"/>
@@ -7982,10 +7993,10 @@
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="89" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B56" s="97" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C56" s="99" t="str">
         <f t="shared" si="1"/>
@@ -7998,10 +8009,10 @@
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="89" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B57" s="97" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C57" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8014,10 +8025,10 @@
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="89" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B58" s="97" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C58" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8030,10 +8041,10 @@
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="89" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B59" s="97" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C59" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8046,10 +8057,10 @@
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="89" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B60" s="97" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C60" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8062,10 +8073,10 @@
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="89" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B61" s="97" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C61" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8078,10 +8089,10 @@
     </row>
     <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="89" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B62" s="97" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C62" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8094,10 +8105,10 @@
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="89" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B63" s="97" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C63" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8110,10 +8121,10 @@
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="89" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B64" s="97" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C64" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8126,10 +8137,10 @@
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="89" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B65" s="97" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C65" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8142,10 +8153,10 @@
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="89" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B66" s="97" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C66" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8158,10 +8169,10 @@
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="89" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B67" s="97" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C67" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8174,10 +8185,10 @@
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="89" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B68" s="97" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C68" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8190,10 +8201,10 @@
     </row>
     <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="89" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B69" s="97" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C69" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8206,10 +8217,10 @@
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="89" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B70" s="97" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C70" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8222,10 +8233,10 @@
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="89" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B71" s="97" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C71" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8238,10 +8249,10 @@
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="89" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B72" s="97" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C72" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8254,10 +8265,10 @@
     </row>
     <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="89" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B73" s="97" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C73" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8270,10 +8281,10 @@
     </row>
     <row r="74" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="89" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B74" s="97" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C74" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8286,10 +8297,10 @@
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="89" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B75" s="97" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C75" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8302,10 +8313,10 @@
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="89" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B76" s="97" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C76" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8318,10 +8329,10 @@
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="89" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B77" s="97" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C77" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8334,10 +8345,10 @@
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="89" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B78" s="97" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C78" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8350,10 +8361,10 @@
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="89" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B79" s="97" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C79" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8366,10 +8377,10 @@
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="89" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B80" s="97" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C80" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8382,10 +8393,10 @@
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="89" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B81" s="97" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C81" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8398,10 +8409,10 @@
     </row>
     <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="89" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B82" s="97" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C82" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8414,10 +8425,10 @@
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="89" t="s">
+        <v>327</v>
+      </c>
+      <c r="B83" s="97" t="s">
         <v>328</v>
-      </c>
-      <c r="B83" s="97" t="s">
-        <v>329</v>
       </c>
       <c r="C83" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8430,10 +8441,10 @@
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="89" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B84" s="97" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C84" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8446,10 +8457,10 @@
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="89" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B85" s="97" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C85" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8462,10 +8473,10 @@
     </row>
     <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="89" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B86" s="97" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C86" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8478,10 +8489,10 @@
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="89" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B87" s="97" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C87" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8494,10 +8505,10 @@
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="89" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B88" s="97" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C88" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8510,10 +8521,10 @@
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="89" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B89" s="97" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C89" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8526,10 +8537,10 @@
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="89" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B90" s="97" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C90" s="99" t="str">
         <f t="shared" ref="C90:C94" si="2">""""&amp;A90&amp;""""&amp;" : "&amp;""""&amp;B90&amp;""""&amp;","</f>
@@ -8542,10 +8553,10 @@
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="89" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B91" s="97" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C91" s="99" t="str">
         <f t="shared" si="2"/>
@@ -8558,10 +8569,10 @@
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="89" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B92" s="97" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C92" s="99" t="str">
         <f t="shared" si="2"/>
@@ -8574,10 +8585,10 @@
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="89" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B93" s="97" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C93" s="99" t="str">
         <f t="shared" si="2"/>
@@ -8590,10 +8601,10 @@
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="89" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B94" s="97" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C94" s="99" t="str">
         <f t="shared" si="2"/>
@@ -8662,216 +8673,216 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="100" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E1" s="100"/>
       <c r="H1" s="100"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="102" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B41" s="102" t="e">
         <v>#N/A</v>
       </c>
       <c r="C41" s="102"/>
       <c r="D41" s="102" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E41" s="102"/>
     </row>
@@ -8884,47 +8895,47 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="101" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B43" s="101" t="e">
         <v>#N/A</v>
       </c>
       <c r="D43" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="101" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B44" s="101" t="e">
         <v>#N/A</v>
       </c>
       <c r="D44" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="101" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B45" s="101" t="e">
         <v>#N/A</v>
       </c>
       <c r="C45" s="102"/>
       <c r="D45" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="101" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B46" s="101" t="e">
         <v>#N/A</v>
       </c>
       <c r="D46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">

--- a/Wyoming/WaterAllocation/WYwr_POU_Allocation Schema Mapping to WaDE.xlsx
+++ b/Wyoming/WaterAllocation/WYwr_POU_Allocation Schema Mapping to WaDE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Wyoming\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618E9BF3-D8B1-4548-9453-B275B4AA0AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED925F2B-D834-4169-8017-325B0B7E4671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="28680" yWindow="-1380" windowWidth="38640" windowHeight="21120" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -1084,9 +1084,6 @@
     <t>OTH_CM</t>
   </si>
   <si>
-    <t>Other - Commercial</t>
-  </si>
-  <si>
     <t>AESFIS</t>
   </si>
   <si>
@@ -1129,9 +1126,6 @@
     <t>OTH_IN</t>
   </si>
   <si>
-    <t>Other - Industrial</t>
-  </si>
-  <si>
     <t>PCT</t>
   </si>
   <si>
@@ -1204,9 +1198,6 @@
     <t>OTH_TM</t>
   </si>
   <si>
-    <t>Other - Temporary</t>
-  </si>
-  <si>
     <t>RDC</t>
   </si>
   <si>
@@ -1423,18 +1414,9 @@
     <t>Commercial Agriculture</t>
   </si>
   <si>
-    <t>Coal Bed Methane - Ground Water</t>
-  </si>
-  <si>
     <t>Mine Dewatering</t>
   </si>
   <si>
-    <t>Domestic - Ground Water</t>
-  </si>
-  <si>
-    <t>Domestic - Surface Water</t>
-  </si>
-  <si>
     <t>Domestic (Phase 2 Award)</t>
   </si>
   <si>
@@ -1447,36 +1429,15 @@
     <t>Instream Flow (Phase 2 Award)</t>
   </si>
   <si>
-    <t>Industrial - Ground Water</t>
-  </si>
-  <si>
-    <t>Industrial - Surface Water</t>
-  </si>
-  <si>
-    <t>Irrigation - Ground Water</t>
-  </si>
-  <si>
-    <t>Irrigation - Surface Water</t>
-  </si>
-  <si>
     <t>Maintain Natural Lake Level (Phase 2 Award)</t>
   </si>
   <si>
     <t>Large Scale Landscape</t>
   </si>
   <si>
-    <t>Miscellaneous - Ground Water</t>
-  </si>
-  <si>
     <t>Monitor</t>
   </si>
   <si>
-    <t>Municipal - Ground Water</t>
-  </si>
-  <si>
-    <t>Municipal - Surface Water</t>
-  </si>
-  <si>
     <t>Natural Flow (Phase 2 Award)</t>
   </si>
   <si>
@@ -1628,6 +1589,45 @@
   </si>
   <si>
     <t>WaDEDataMappingUrl</t>
+  </si>
+  <si>
+    <t>Coal Bed Methane Ground Water</t>
+  </si>
+  <si>
+    <t>Domestic Ground Water</t>
+  </si>
+  <si>
+    <t>Domestic Surface Water</t>
+  </si>
+  <si>
+    <t>Industrial Ground Water</t>
+  </si>
+  <si>
+    <t>Industrial Surface Water</t>
+  </si>
+  <si>
+    <t>Irrigation Ground Water</t>
+  </si>
+  <si>
+    <t>Irrigation Surface Water</t>
+  </si>
+  <si>
+    <t>Miscellaneous Ground Water</t>
+  </si>
+  <si>
+    <t>Municipal Ground Water</t>
+  </si>
+  <si>
+    <t>Municipal Surface Water</t>
+  </si>
+  <si>
+    <t>Other Commercial</t>
+  </si>
+  <si>
+    <t>Other Industrial</t>
+  </si>
+  <si>
+    <t>Other Temporary</t>
   </si>
 </sst>
 </file>
@@ -3238,7 +3238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -3261,7 +3261,7 @@
         <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3269,7 +3269,7 @@
         <v>236</v>
       </c>
       <c r="B4" s="94" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3277,32 +3277,32 @@
         <v>237</v>
       </c>
       <c r="B8" s="111" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" s="128" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3310,12 +3310,12 @@
         <v>240</v>
       </c>
       <c r="B17" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -3328,7 +3328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -3432,7 +3432,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="85" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="F4" s="59" t="s">
         <v>38</v>
@@ -3444,7 +3444,7 @@
         <v>38</v>
       </c>
       <c r="I4" s="70" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J4" s="71" t="s">
         <v>187</v>
@@ -3464,7 +3464,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F5" s="44" t="s">
         <v>38</v>
@@ -3496,7 +3496,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>38</v>
@@ -3528,7 +3528,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F7" s="44" t="s">
         <v>38</v>
@@ -3560,7 +3560,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F8" s="44" t="s">
         <v>38</v>
@@ -3592,7 +3592,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="F9" s="44" t="s">
         <v>38</v>
@@ -3622,7 +3622,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="F10" s="44" t="s">
         <v>38</v>
@@ -3654,7 +3654,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="127" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="F11" s="44" t="s">
         <v>38</v>
@@ -3686,7 +3686,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="F12" s="44" t="s">
         <v>38</v>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="13" spans="1:10" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>34</v>
@@ -3718,7 +3718,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="92" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F13" s="44" t="s">
         <v>38</v>
@@ -3857,7 +3857,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="85" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -3917,7 +3917,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="91" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>38</v>
@@ -4109,7 +4109,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="91" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F12" s="44" t="s">
         <v>38</v>
@@ -4141,7 +4141,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="91" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F13" s="44" t="s">
         <v>38</v>
@@ -4276,7 +4276,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="85" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -4308,7 +4308,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="95" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>38</v>
@@ -4340,7 +4340,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>38</v>
@@ -4372,7 +4372,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="93" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F7" s="44" t="s">
         <v>38</v>
@@ -4404,7 +4404,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F8" s="44" t="s">
         <v>38</v>
@@ -4436,7 +4436,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F9" s="44" t="s">
         <v>38</v>
@@ -4468,7 +4468,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="95" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F10" s="44" t="s">
         <v>38</v>
@@ -4500,7 +4500,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F11" s="44" t="s">
         <v>38</v>
@@ -4655,7 +4655,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="103" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F4" s="104" t="s">
         <v>38</v>
@@ -4685,7 +4685,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="106" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F5" s="106" t="s">
         <v>38</v>
@@ -4715,7 +4715,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="106" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F6" s="106" t="s">
         <v>38</v>
@@ -4778,10 +4778,10 @@
         <v>38</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="H8" s="75"/>
       <c r="I8" s="70" t="s">
@@ -4805,7 +4805,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="116" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="F9" s="116" t="s">
         <v>38</v>
@@ -4838,10 +4838,10 @@
         <v>38</v>
       </c>
       <c r="F10" s="109" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="G10" s="110" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="H10" s="75"/>
       <c r="I10" s="70" t="s">
@@ -4972,7 +4972,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="118" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F4" s="59" t="s">
         <v>38</v>
@@ -5002,7 +5002,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F5" s="44" t="s">
         <v>38</v>
@@ -5032,7 +5032,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>38</v>
@@ -5062,7 +5062,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F7" s="44" t="s">
         <v>38</v>
@@ -5122,7 +5122,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F9" s="44" t="s">
         <v>38</v>
@@ -5150,7 +5150,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F10" s="44" t="s">
         <v>38</v>
@@ -5180,7 +5180,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F11" s="44" t="s">
         <v>38</v>
@@ -5210,7 +5210,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F12" s="44" t="s">
         <v>38</v>
@@ -5243,7 +5243,7 @@
         <v>38</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>55</v>
@@ -5273,7 +5273,7 @@
         <v>38</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="G14" s="45" t="s">
         <v>54</v>
@@ -5300,7 +5300,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F15" s="44" t="s">
         <v>38</v>
@@ -5330,7 +5330,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F16" s="44" t="s">
         <v>38</v>
@@ -5360,7 +5360,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
@@ -5389,10 +5389,10 @@
         <v>38</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H18" s="69"/>
       <c r="I18" s="74" t="s">
@@ -5416,7 +5416,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="F19" s="44" t="s">
         <v>38</v>
@@ -5446,7 +5446,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F20" s="44" t="s">
         <v>38</v>
@@ -5479,10 +5479,10 @@
         <v>38</v>
       </c>
       <c r="F21" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="G21" s="32" t="s">
         <v>497</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>510</v>
       </c>
       <c r="H21" s="69"/>
       <c r="I21" s="74" t="s">
@@ -5506,7 +5506,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F22" s="44" t="s">
         <v>38</v>
@@ -5536,7 +5536,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F23" s="44" t="s">
         <v>38</v>
@@ -5811,7 +5811,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>34</v>
@@ -5823,7 +5823,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="32"/>
@@ -5845,7 +5845,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="126" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
@@ -5877,7 +5877,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>38</v>
@@ -5909,7 +5909,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>38</v>
@@ -5941,7 +5941,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="126" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>38</v>
@@ -5973,7 +5973,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F14" s="59" t="s">
         <v>38</v>
@@ -6005,7 +6005,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>38</v>
@@ -6037,7 +6037,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>38</v>
@@ -6069,7 +6069,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
@@ -6101,7 +6101,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>38</v>
@@ -6133,7 +6133,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>38</v>
@@ -6165,7 +6165,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>38</v>
@@ -6197,7 +6197,7 @@
         <v>38</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>38</v>
@@ -6229,7 +6229,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>38</v>
@@ -6261,7 +6261,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>38</v>
@@ -6296,10 +6296,10 @@
         <v>38</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H24" s="80" t="s">
         <v>38</v>
@@ -6328,10 +6328,10 @@
         <v>38</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="G25" s="46" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="H25" s="80" t="s">
         <v>38</v>
@@ -6357,13 +6357,13 @@
         <v>38</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="G26" s="46" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H26" s="80" t="s">
         <v>38</v>
@@ -6392,10 +6392,10 @@
         <v>38</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="G27" s="46" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H27" s="80" t="s">
         <v>38</v>
@@ -6421,7 +6421,7 @@
         <v>20</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>38</v>
@@ -6453,7 +6453,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>38</v>
@@ -6485,7 +6485,7 @@
         <v>38</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>38</v>
@@ -6517,7 +6517,7 @@
         <v>20</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>38</v>
@@ -6549,7 +6549,7 @@
         <v>38</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>38</v>
@@ -6581,13 +6581,13 @@
         <v>38</v>
       </c>
       <c r="E33" s="67" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F33" s="41" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="G33" s="45" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="H33" s="80" t="s">
         <v>38</v>
@@ -6613,7 +6613,7 @@
         <v>38</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>38</v>
@@ -6645,7 +6645,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>38</v>
@@ -6677,7 +6677,7 @@
         <v>20</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>38</v>
@@ -6741,7 +6741,7 @@
         <v>38</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>38</v>
@@ -6799,7 +6799,7 @@
         <v>38</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F40" s="24" t="s">
         <v>38</v>
@@ -6834,10 +6834,10 @@
         <v>38</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="H41" s="77"/>
       <c r="I41" s="81" t="s">
@@ -6861,7 +6861,7 @@
         <v>20</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>38</v>
@@ -6893,7 +6893,7 @@
         <v>38</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F43" s="24" t="s">
         <v>38</v>
@@ -6913,7 +6913,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>34</v>
@@ -6925,17 +6925,17 @@
         <v>20</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="G44" s="121"/>
       <c r="H44" s="112" t="s">
         <v>38</v>
       </c>
       <c r="I44" s="113" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="J44" s="114" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6958,7 +6958,7 @@
         <v>38</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F45" s="24" t="s">
         <v>38</v>
@@ -6990,7 +6990,7 @@
         <v>20</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>38</v>
@@ -7010,7 +7010,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>104</v>
@@ -7022,7 +7022,7 @@
         <v>20</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F47" s="24" t="s">
         <v>38</v>
@@ -7054,7 +7054,7 @@
         <v>38</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F48" s="24" t="s">
         <v>38</v>
@@ -7086,8 +7086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A68CD9-E6C8-4C1E-8A36-F76F66BA5935}">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7103,10 +7103,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="87" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G1" s="90" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7141,18 +7141,18 @@
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
       <c r="F3" s="89" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G3" s="89" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="89" t="s">
+        <v>347</v>
+      </c>
+      <c r="B4" s="97" t="s">
         <v>348</v>
-      </c>
-      <c r="B4" s="97" t="s">
-        <v>349</v>
       </c>
       <c r="C4" s="99" t="str">
         <f t="shared" ref="C4:C42" si="0">""""&amp;A4&amp;""""&amp;" : "&amp;""""&amp;B4&amp;""""&amp;","</f>
@@ -7161,18 +7161,18 @@
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
       <c r="F4" s="89" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G4" s="89" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="89" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B5" s="97" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C5" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7181,18 +7181,18 @@
       <c r="D5" s="40"/>
       <c r="E5" s="40"/>
       <c r="F5" s="89" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G5" s="89" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="89" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B6" s="97" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C6" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7201,18 +7201,18 @@
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="89" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G6" s="89" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="89" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B7" s="97" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C7" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7221,18 +7221,18 @@
       <c r="D7" s="40"/>
       <c r="E7" s="40"/>
       <c r="F7" s="89" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G7" s="89" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="89" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B8" s="97" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C8" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7241,18 +7241,18 @@
       <c r="D8" s="40"/>
       <c r="E8" s="40"/>
       <c r="F8" s="89" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G8" s="89" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="89" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B9" s="97" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C9" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7261,10 +7261,10 @@
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
       <c r="F9" s="89" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G9" s="89" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7281,10 +7281,10 @@
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
       <c r="F10" s="89" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G10" s="89" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7301,10 +7301,10 @@
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
       <c r="F11" s="89" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G11" s="89" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7312,7 +7312,7 @@
         <v>319</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C12" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7321,10 +7321,10 @@
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
       <c r="F12" s="89" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G12" s="89" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7332,11 +7332,11 @@
         <v>274</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>460</v>
+        <v>516</v>
       </c>
       <c r="C13" s="99" t="str">
         <f t="shared" si="0"/>
-        <v>"CBM" : "Coal Bed Methane - Ground Water",</v>
+        <v>"CBM" : "Coal Bed Methane Ground Water",</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
@@ -7344,7 +7344,7 @@
         <v>137</v>
       </c>
       <c r="G13" s="89" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7361,10 +7361,10 @@
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
       <c r="F14" s="89" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G14" s="89" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7381,10 +7381,10 @@
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
       <c r="F15" s="89" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G15" s="89" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7401,10 +7401,10 @@
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
       <c r="F16" s="89" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G16" s="89" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7421,10 +7421,10 @@
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
       <c r="F17" s="89" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G17" s="89" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7480,7 +7480,7 @@
         <v>320</v>
       </c>
       <c r="B21" s="97" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C21" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7494,11 +7494,11 @@
         <v>275</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
       <c r="C22" s="99" t="str">
         <f t="shared" si="0"/>
-        <v>"DOM_GW" : "Domestic - Ground Water",</v>
+        <v>"DOM_GW" : "Domestic Ground Water",</v>
       </c>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -7508,11 +7508,11 @@
         <v>286</v>
       </c>
       <c r="B23" s="97" t="s">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="C23" s="99" t="str">
         <f t="shared" si="0"/>
-        <v>"DOM_SW" : "Domestic - Surface Water",</v>
+        <v>"DOM_SW" : "Domestic Surface Water",</v>
       </c>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -7522,7 +7522,7 @@
         <v>287</v>
       </c>
       <c r="B24" s="97" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C24" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7533,10 +7533,10 @@
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="89" t="s">
+        <v>350</v>
+      </c>
+      <c r="B25" s="97" t="s">
         <v>351</v>
-      </c>
-      <c r="B25" s="97" t="s">
-        <v>352</v>
       </c>
       <c r="C25" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7561,10 +7561,10 @@
     </row>
     <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="89" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B27" s="97" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C27" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7620,7 +7620,7 @@
         <v>292</v>
       </c>
       <c r="B31" s="97" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C31" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7673,10 +7673,10 @@
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="89" t="s">
+        <v>352</v>
+      </c>
+      <c r="B35" s="97" t="s">
         <v>353</v>
-      </c>
-      <c r="B35" s="97" t="s">
-        <v>354</v>
       </c>
       <c r="C35" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7690,7 +7690,7 @@
         <v>321</v>
       </c>
       <c r="B36" s="97" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C36" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7715,10 +7715,10 @@
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="89" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B38" s="97" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C38" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7746,7 +7746,7 @@
         <v>298</v>
       </c>
       <c r="B40" s="97" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C40" s="99" t="str">
         <f t="shared" si="0"/>
@@ -7760,11 +7760,11 @@
         <v>276</v>
       </c>
       <c r="B41" s="97" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="C41" s="99" t="str">
         <f t="shared" si="0"/>
-        <v>"IND_GW" : "Industrial - Ground Water",</v>
+        <v>"IND_GW" : "Industrial Ground Water",</v>
       </c>
       <c r="D41" s="40"/>
       <c r="E41" s="40"/>
@@ -7774,11 +7774,11 @@
         <v>299</v>
       </c>
       <c r="B42" s="97" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="C42" s="99" t="str">
         <f t="shared" si="0"/>
-        <v>"IND_SW" : "Industrial - Surface Water",</v>
+        <v>"IND_SW" : "Industrial Surface Water",</v>
       </c>
       <c r="D42" s="40"/>
       <c r="E42" s="40"/>
@@ -7788,11 +7788,11 @@
         <v>277</v>
       </c>
       <c r="B43" s="97" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="C43" s="99" t="str">
         <f t="shared" ref="C43:C89" si="1">""""&amp;A43&amp;""""&amp;" : "&amp;""""&amp;B43&amp;""""&amp;","</f>
-        <v>"IRR_GW" : "Irrigation - Ground Water",</v>
+        <v>"IRR_GW" : "Irrigation Ground Water",</v>
       </c>
       <c r="D43" s="40"/>
       <c r="E43" s="40"/>
@@ -7804,11 +7804,11 @@
         <v>300</v>
       </c>
       <c r="B44" s="97" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
       <c r="C44" s="99" t="str">
         <f t="shared" si="1"/>
-        <v>"IRR_SW" : "Irrigation - Surface Water",</v>
+        <v>"IRR_SW" : "Irrigation Surface Water",</v>
       </c>
       <c r="D44" s="40"/>
       <c r="E44" s="40"/>
@@ -7820,7 +7820,7 @@
         <v>301</v>
       </c>
       <c r="B45" s="97" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C45" s="99" t="str">
         <f t="shared" si="1"/>
@@ -7836,7 +7836,7 @@
         <v>302</v>
       </c>
       <c r="B46" s="97" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="C46" s="99" t="str">
         <f t="shared" si="1"/>
@@ -7852,7 +7852,7 @@
         <v>322</v>
       </c>
       <c r="B47" s="97" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C47" s="99" t="str">
         <f t="shared" si="1"/>
@@ -7881,10 +7881,10 @@
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="89" t="s">
+        <v>354</v>
+      </c>
+      <c r="B49" s="97" t="s">
         <v>355</v>
-      </c>
-      <c r="B49" s="97" t="s">
-        <v>356</v>
       </c>
       <c r="C49" s="99" t="str">
         <f t="shared" si="1"/>
@@ -7900,7 +7900,7 @@
         <v>343</v>
       </c>
       <c r="B50" s="97" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="C50" s="99" t="str">
         <f t="shared" si="1"/>
@@ -7929,10 +7929,10 @@
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="89" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B52" s="97" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C52" s="99" t="str">
         <f t="shared" si="1"/>
@@ -7945,10 +7945,10 @@
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="89" t="s">
+        <v>356</v>
+      </c>
+      <c r="B53" s="97" t="s">
         <v>357</v>
-      </c>
-      <c r="B53" s="97" t="s">
-        <v>358</v>
       </c>
       <c r="C53" s="99" t="str">
         <f t="shared" si="1"/>
@@ -7961,10 +7961,10 @@
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="89" t="s">
+        <v>358</v>
+      </c>
+      <c r="B54" s="97" t="s">
         <v>359</v>
-      </c>
-      <c r="B54" s="97" t="s">
-        <v>360</v>
       </c>
       <c r="C54" s="99" t="str">
         <f t="shared" si="1"/>
@@ -7977,14 +7977,14 @@
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="89" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B55" s="97" t="s">
-        <v>474</v>
+        <v>523</v>
       </c>
       <c r="C55" s="99" t="str">
         <f t="shared" si="1"/>
-        <v>"MIS" : "Miscellaneous - Ground Water",</v>
+        <v>"MIS" : "Miscellaneous Ground Water",</v>
       </c>
       <c r="D55" s="40"/>
       <c r="E55" s="40"/>
@@ -7996,7 +7996,7 @@
         <v>278</v>
       </c>
       <c r="B56" s="97" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="C56" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8012,11 +8012,11 @@
         <v>279</v>
       </c>
       <c r="B57" s="97" t="s">
-        <v>476</v>
+        <v>524</v>
       </c>
       <c r="C57" s="99" t="str">
         <f t="shared" si="1"/>
-        <v>"MUN_GW" : "Municipal - Ground Water",</v>
+        <v>"MUN_GW" : "Municipal Ground Water",</v>
       </c>
       <c r="D57" s="40"/>
       <c r="E57" s="40"/>
@@ -8028,11 +8028,11 @@
         <v>303</v>
       </c>
       <c r="B58" s="97" t="s">
-        <v>477</v>
+        <v>525</v>
       </c>
       <c r="C58" s="99" t="str">
         <f t="shared" si="1"/>
-        <v>"MUN_SW" : "Municipal - Surface Water",</v>
+        <v>"MUN_SW" : "Municipal Surface Water",</v>
       </c>
       <c r="D58" s="40"/>
       <c r="E58" s="40"/>
@@ -8044,7 +8044,7 @@
         <v>304</v>
       </c>
       <c r="B59" s="97" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="C59" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8060,7 +8060,7 @@
         <v>323</v>
       </c>
       <c r="B60" s="97" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="C60" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8092,11 +8092,11 @@
         <v>346</v>
       </c>
       <c r="B62" s="97" t="s">
-        <v>347</v>
+        <v>526</v>
       </c>
       <c r="C62" s="99" t="str">
         <f t="shared" si="1"/>
-        <v>"OTH_CM" : "Other - Commercial",</v>
+        <v>"OTH_CM" : "Other Commercial",</v>
       </c>
       <c r="D62" s="40"/>
       <c r="E62" s="40"/>
@@ -8105,14 +8105,14 @@
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="89" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B63" s="97" t="s">
-        <v>362</v>
+        <v>527</v>
       </c>
       <c r="C63" s="99" t="str">
         <f t="shared" si="1"/>
-        <v>"OTH_IN" : "Other - Industrial",</v>
+        <v>"OTH_IN" : "Other Industrial",</v>
       </c>
       <c r="D63" s="40"/>
       <c r="E63" s="40"/>
@@ -8121,14 +8121,14 @@
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="89" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B64" s="97" t="s">
-        <v>387</v>
+        <v>528</v>
       </c>
       <c r="C64" s="99" t="str">
         <f t="shared" si="1"/>
-        <v>"OTH_TM" : "Other - Temporary",</v>
+        <v>"OTH_TM" : "Other Temporary",</v>
       </c>
       <c r="D64" s="40"/>
       <c r="E64" s="40"/>
@@ -8140,7 +8140,7 @@
         <v>324</v>
       </c>
       <c r="B65" s="97" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="C65" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8153,10 +8153,10 @@
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="89" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B66" s="97" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C66" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8169,10 +8169,10 @@
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="89" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B67" s="97" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C67" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8201,10 +8201,10 @@
     </row>
     <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="89" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B69" s="97" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C69" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8233,10 +8233,10 @@
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="89" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B71" s="97" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C71" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8265,10 +8265,10 @@
     </row>
     <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="89" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B73" s="97" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C73" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8284,7 +8284,7 @@
         <v>325</v>
       </c>
       <c r="B74" s="97" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="C74" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8297,10 +8297,10 @@
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="89" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B75" s="97" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="C75" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8313,10 +8313,10 @@
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="89" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B76" s="97" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C76" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8329,10 +8329,10 @@
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="89" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B77" s="97" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C77" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8393,7 +8393,7 @@
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="89" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B81" s="97" t="s">
         <v>249</v>
@@ -8412,7 +8412,7 @@
         <v>326</v>
       </c>
       <c r="B82" s="97" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="C82" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8460,7 +8460,7 @@
         <v>312</v>
       </c>
       <c r="B85" s="97" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C85" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8505,10 +8505,10 @@
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="89" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B88" s="97" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="C88" s="99" t="str">
         <f t="shared" si="1"/>
@@ -8540,7 +8540,7 @@
         <v>315</v>
       </c>
       <c r="B90" s="97" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="C90" s="99" t="str">
         <f t="shared" ref="C90:C94" si="2">""""&amp;A90&amp;""""&amp;" : "&amp;""""&amp;B90&amp;""""&amp;","</f>
@@ -8553,10 +8553,10 @@
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="89" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B91" s="97" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C91" s="99" t="str">
         <f t="shared" si="2"/>
@@ -8588,7 +8588,7 @@
         <v>329</v>
       </c>
       <c r="B93" s="97" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="C93" s="99" t="str">
         <f t="shared" si="2"/>
@@ -8660,7 +8660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4D730E-5938-430B-ADEE-1D881E5D0F28}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
@@ -8673,7 +8673,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="100" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="E1" s="100"/>
       <c r="H1" s="100"/>
@@ -8780,7 +8780,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -8790,17 +8790,17 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -8820,12 +8820,12 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -8875,14 +8875,14 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="102" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B41" s="102" t="e">
         <v>#N/A</v>
       </c>
       <c r="C41" s="102"/>
       <c r="D41" s="102" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="E41" s="102"/>
     </row>
@@ -8895,41 +8895,41 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="101" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="B43" s="101" t="e">
         <v>#N/A</v>
       </c>
       <c r="D43" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="101" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="B44" s="101" t="e">
         <v>#N/A</v>
       </c>
       <c r="D44" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="101" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="B45" s="101" t="e">
         <v>#N/A</v>
       </c>
       <c r="C45" s="102"/>
       <c r="D45" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="101" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="B46" s="101" t="e">
         <v>#N/A</v>
